--- a/MR RETURN REHAN/OKTOBER/28102023/undel.xlsx
+++ b/MR RETURN REHAN/OKTOBER/28102023/undel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="188">
   <si>
     <t>TGL</t>
   </si>
@@ -571,6 +571,18 @@
   </si>
   <si>
     <t>CHOISUN NIAM</t>
+  </si>
+  <si>
+    <t>CSS0223259041148</t>
+  </si>
+  <si>
+    <t>JNEB-1008533155</t>
+  </si>
+  <si>
+    <t>TUTIK HANITAH</t>
+  </si>
+  <si>
+    <t>RISKON MUBAROK</t>
   </si>
 </sst>
 </file>
@@ -727,13 +739,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8273,7 +8285,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E17" sqref="E17:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8286,44 +8298,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="19" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="18"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
@@ -8533,19 +8545,35 @@
       <c r="A17" s="15">
         <v>13</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="B17" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>14</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
+      <c r="B18" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
@@ -8603,12 +8631,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:E2"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
